--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthia\Downloads\dashboardd-main com foto de perfil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEBE8F1-344F-446C-BE75-DC751E1C6AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09210B-F9CF-4C84-9EE9-DA7EC8030404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0610E5AD-EDE0-4FE6-82E1-686B18CA35EB}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{0610E5AD-EDE0-4FE6-82E1-686B18CA35EB}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Aparelho</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Liquidificador</t>
-  </si>
-  <si>
-    <t>Periodicamente</t>
   </si>
   <si>
     <t>Ventilador</t>
@@ -309,6 +306,146 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -342,6 +479,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -357,6 +499,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -372,6 +519,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -387,6 +539,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -402,6 +559,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -417,6 +579,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -434,6 +601,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -451,6 +623,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -468,6 +645,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -485,6 +667,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-ED48-4B39-BC2E-FC3835BC0CF1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -10320,7 +10507,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4CEB54C-2F16-40ED-945A-B6F03A9E8E32}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4CEB54C-2F16-40ED-945A-B6F03A9E8E32}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -10389,12 +10576,132 @@
   <dataFields count="1">
     <dataField name="Soma de Potência(W)" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="11">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -10743,15 +11050,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7">
         <v>8400</v>
@@ -10767,7 +11074,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>90</v>
@@ -10799,7 +11106,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7">
         <v>400</v>
@@ -10807,7 +11114,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="7">
         <v>150</v>
@@ -10815,7 +11122,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7">
         <v>300</v>
@@ -10823,13 +11130,13 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="7">
         <v>11010</v>
@@ -10845,8 +11152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B202C1-32AF-4BB1-A28B-AC0EFC485876}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10950,8 +11257,8 @@
       <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="1">
+        <v>0.1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -10960,7 +11267,7 @@
     </row>
     <row r="6" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>300</v>
@@ -10983,13 +11290,13 @@
     </row>
     <row r="7" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>400</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+      <c r="C7" s="1">
+        <v>0.2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -10998,7 +11305,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>90</v>
@@ -11021,7 +11328,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>150</v>
@@ -11044,7 +11351,7 @@
     </row>
     <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>8400</v>

--- a/planilha.xlsx
+++ b/planilha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jthia\Downloads\dashboardd-main com foto de perfil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD09210B-F9CF-4C84-9EE9-DA7EC8030404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D124C14A-585C-43C2-9E24-D90B6D1DC6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{0610E5AD-EDE0-4FE6-82E1-686B18CA35EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0610E5AD-EDE0-4FE6-82E1-686B18CA35EB}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="2" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,18 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF001D35"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +193,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11152,8 +11166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B202C1-32AF-4BB1-A28B-AC0EFC485876}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11258,12 +11272,20 @@
         <v>200</v>
       </c>
       <c r="C5" s="1">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -11379,9 +11401,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="4">
-        <v>9.9084000000000003</v>
-      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
